--- a/doc/plan.xlsx
+++ b/doc/plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\local\image_match_platform\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>基于phash的图片指纹识别算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,7 +230,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成，待完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成，待完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体架构规划中，各模块协调接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计中，与整体架构整合规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础框架所需组件部署完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>7天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关资料调研中(svm，ml等相关库)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opecv python相关库环境部署及使用调试中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opecv python相关库环境部署及使用调试中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,16 +349,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -386,70 +472,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -727,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D31"/>
+  <dimension ref="B1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -739,277 +888,367 @@
     <col min="2" max="2" width="29.875" customWidth="1"/>
     <col min="3" max="3" width="34.375" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="41.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+      <c r="E1" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="3"/>
-      <c r="C3" s="10" t="s">
+      <c r="E2" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="22"/>
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="3"/>
-      <c r="C4" s="10" t="s">
+      <c r="E3" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="22"/>
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="3"/>
-      <c r="C5" s="16" t="s">
+      <c r="E4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="22"/>
+      <c r="C5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="3"/>
-      <c r="C6" s="10" t="s">
+      <c r="E5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="22"/>
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="3"/>
-      <c r="C7" s="10" t="s">
+      <c r="E6" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="22"/>
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="5"/>
-      <c r="C8" s="11" t="s">
+      <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="21"/>
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
+      <c r="E8" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="3"/>
-      <c r="C10" s="12" t="s">
+      <c r="E9" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="22"/>
+      <c r="C10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="3"/>
-      <c r="C11" s="13" t="s">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="22"/>
+      <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="3"/>
-      <c r="C12" s="13" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="22"/>
+      <c r="C12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="3"/>
-      <c r="C13" s="13" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="22"/>
+      <c r="C13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="5"/>
-      <c r="C14" s="14" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="21"/>
+      <c r="C14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
+      <c r="E14" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="3"/>
-      <c r="C16" s="8" t="s">
+      <c r="E15" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="22"/>
+      <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="3"/>
-      <c r="C17" s="8" t="s">
+      <c r="E16" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="22"/>
+      <c r="C17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B18" s="3"/>
-      <c r="C18" s="8" t="s">
+      <c r="E17" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="22"/>
+      <c r="C18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="5"/>
-      <c r="C19" s="14" t="s">
+      <c r="E18" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="21"/>
+      <c r="C19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="1" t="s">
+      <c r="E19" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="3"/>
-      <c r="C21" s="13" t="s">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" s="22"/>
+      <c r="C21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="3"/>
-      <c r="C22" s="13" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="22"/>
+      <c r="C22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="3"/>
-      <c r="C23" s="13" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" s="22"/>
+      <c r="C23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="3"/>
-      <c r="C24" s="13" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B24" s="22"/>
+      <c r="C24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="3"/>
-      <c r="C25" s="8" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B25" s="22"/>
+      <c r="C25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="3"/>
-      <c r="C26" s="13" t="s">
+      <c r="E25" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B26" s="22"/>
+      <c r="C26" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="3"/>
-      <c r="C27" s="13" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="22"/>
+      <c r="C27" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="3"/>
-      <c r="C28" s="13" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="22"/>
+      <c r="C28" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="5"/>
-      <c r="C29" s="14" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="21"/>
+      <c r="C29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="1" t="s">
+      <c r="E29" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="5"/>
-      <c r="C31" s="17" t="s">
+      <c r="D30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="21"/>
+      <c r="C31" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
